--- a/docs/LMER_Microglia_3.xlsx
+++ b/docs/LMER_Microglia_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>logFC</t>
   </si>
@@ -48,12 +48,12 @@
     <t>Pigq</t>
   </si>
   <si>
+    <t>Tbata</t>
+  </si>
+  <si>
     <t>Rnf14</t>
   </si>
   <si>
-    <t>Tbata</t>
-  </si>
-  <si>
     <t>AY036118</t>
   </si>
   <si>
@@ -87,12 +87,12 @@
     <t>Gt(ROSA)26Sor</t>
   </si>
   <si>
+    <t>Gm15564</t>
+  </si>
+  <si>
     <t>Fkbp14</t>
   </si>
   <si>
-    <t>Gm15564</t>
-  </si>
-  <si>
     <t>Clec7a</t>
   </si>
   <si>
@@ -102,10 +102,13 @@
     <t>Gm21092</t>
   </si>
   <si>
+    <t>Gm10774</t>
+  </si>
+  <si>
     <t>Alg14</t>
   </si>
   <si>
-    <t>Gm10774</t>
+    <t>Gm15417</t>
   </si>
   <si>
     <t>Cox18</t>
@@ -117,9 +120,6 @@
     <t>Acot8</t>
   </si>
   <si>
-    <t>Gm15417</t>
-  </si>
-  <si>
     <t>Wsb2</t>
   </si>
   <si>
@@ -132,40 +132,22 @@
     <t>Ano4</t>
   </si>
   <si>
+    <t>Rn7s2</t>
+  </si>
+  <si>
+    <t>Zfp513</t>
+  </si>
+  <si>
     <t>Stam</t>
   </si>
   <si>
-    <t>Zfp513</t>
-  </si>
-  <si>
-    <t>Rn7s2</t>
-  </si>
-  <si>
     <t>Bin2</t>
   </si>
   <si>
+    <t>Dand5</t>
+  </si>
+  <si>
     <t>Eif3d</t>
-  </si>
-  <si>
-    <t>Dand5</t>
-  </si>
-  <si>
-    <t>Syncrip</t>
-  </si>
-  <si>
-    <t>Zfp37</t>
-  </si>
-  <si>
-    <t>Zbed3</t>
-  </si>
-  <si>
-    <t>Tpcn1</t>
-  </si>
-  <si>
-    <t>Nexn</t>
-  </si>
-  <si>
-    <t>Ewsr1</t>
   </si>
   <si>
     <t>x</t>
@@ -251,22 +233,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-10.430076207159566</v>
+        <v>-10.435504726356807</v>
       </c>
       <c r="C2" t="n">
         <v>8.936278847934839</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.946752703374775</v>
+        <v>-8.742794391544589</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8094732162098676E-14</v>
+        <v>7.668936478070415E-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.836054729412953E-10</v>
+        <v>1.0471165867157345E-9</v>
       </c>
       <c r="G2" t="n">
-        <v>20.62461695104323</v>
+        <v>19.567293015063335</v>
       </c>
     </row>
     <row r="3">
@@ -274,22 +256,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>4.768723039351792</v>
+        <v>4.74782159240878</v>
       </c>
       <c r="C3" t="n">
         <v>1.8904150301026563</v>
       </c>
       <c r="D3" t="n">
-        <v>8.26717447834589</v>
+        <v>8.096872320372475</v>
       </c>
       <c r="E3" t="n">
-        <v>7.904424807134885E-13</v>
+        <v>1.8148188547707618E-12</v>
       </c>
       <c r="F3" t="n">
-        <v>5.3963508158309855E-9</v>
+        <v>1.2389768321519991E-8</v>
       </c>
       <c r="G3" t="n">
-        <v>17.701665781720735</v>
+        <v>16.8208097189384</v>
       </c>
     </row>
     <row r="4">
@@ -297,22 +279,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2.311928550114303</v>
+        <v>2.312576563351808</v>
       </c>
       <c r="C4" t="n">
         <v>0.7419952870327355</v>
       </c>
       <c r="D4" t="n">
-        <v>7.905735194569714</v>
+        <v>7.708840201332946</v>
       </c>
       <c r="E4" t="n">
-        <v>4.597611646258477E-12</v>
+        <v>1.1927262652053737E-11</v>
       </c>
       <c r="F4" t="n">
-        <v>2.092526313933775E-8</v>
+        <v>5.4284948083713903E-8</v>
       </c>
       <c r="G4" t="n">
-        <v>16.152251936952005</v>
+        <v>15.178454616079595</v>
       </c>
     </row>
     <row r="5">
@@ -320,22 +302,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>2.8226239375079616</v>
+        <v>2.8167318388059543</v>
       </c>
       <c r="C5" t="n">
         <v>0.18547694763548564</v>
       </c>
       <c r="D5" t="n">
-        <v>6.034433805947153</v>
+        <v>5.869237976772913</v>
       </c>
       <c r="E5" t="n">
-        <v>3.016493400428449E-8</v>
+        <v>6.298657822233029E-8</v>
       </c>
       <c r="F5" t="n">
-        <v>9.673368906666935E-5</v>
+        <v>1.9319131825912476E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.36458376838674</v>
+        <v>7.6476558393072445</v>
       </c>
     </row>
     <row r="6">
@@ -343,22 +325,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>5.880360498223415</v>
+        <v>5.878758301270105</v>
       </c>
       <c r="C6" t="n">
         <v>0.9896187333491764</v>
       </c>
       <c r="D6" t="n">
-        <v>5.99853860348799</v>
+        <v>5.842997936994178</v>
       </c>
       <c r="E6" t="n">
-        <v>3.542320531224159E-8</v>
+        <v>7.074531941523537E-8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.673368906666935E-5</v>
+        <v>1.9319131825912476E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>8.22170827898039</v>
+        <v>7.54524741130037</v>
       </c>
     </row>
     <row r="7">
@@ -366,22 +348,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>3.7945600211829404</v>
+        <v>2.850811964035673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3858669352111885</v>
+        <v>0.830685850283641</v>
       </c>
       <c r="D7" t="n">
-        <v>5.864312457274112</v>
+        <v>5.7058766309543865</v>
       </c>
       <c r="E7" t="n">
-        <v>6.437657332575527E-8</v>
+        <v>1.2934538396616534E-7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.2956427512695554E-4</v>
+        <v>2.5606945345508966E-4</v>
       </c>
       <c r="G7" t="n">
-        <v>7.690514477141605</v>
+        <v>7.013282389761869</v>
       </c>
     </row>
     <row r="8">
@@ -389,22 +371,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>2.8778914216489144</v>
+        <v>3.785585407575947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.830685850283641</v>
+        <v>0.3858669352111885</v>
       </c>
       <c r="D8" t="n">
-        <v>5.85724346709469</v>
+        <v>5.702486306437024</v>
       </c>
       <c r="E8" t="n">
-        <v>6.642375317772732E-8</v>
+        <v>1.3127919834375477E-7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.2956427512695554E-4</v>
+        <v>2.5606945345508966E-4</v>
       </c>
       <c r="G8" t="n">
-        <v>7.662677447895316</v>
+        <v>7.000199021233463</v>
       </c>
     </row>
     <row r="9">
@@ -412,22 +394,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-8.71227173194574</v>
+        <v>-8.707704149136239</v>
       </c>
       <c r="C9" t="n">
         <v>5.39570783510801</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.381748604641995</v>
+        <v>-5.2409741225782405</v>
       </c>
       <c r="E9" t="n">
-        <v>5.248178341675649E-7</v>
+        <v>9.526422303382483E-7</v>
       </c>
       <c r="F9" t="n">
-        <v>8.957328384654914E-4</v>
+        <v>0.0015066962745605775</v>
       </c>
       <c r="G9" t="n">
-        <v>5.8250333463343615</v>
+        <v>5.253351034177184</v>
       </c>
     </row>
     <row r="10">
@@ -435,22 +417,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>4.41808649722378</v>
+        <v>4.4242474277327695</v>
       </c>
       <c r="C10" t="n">
         <v>0.9085681725740155</v>
       </c>
       <c r="D10" t="n">
-        <v>5.34689014285658</v>
+        <v>5.2310763867755865</v>
       </c>
       <c r="E10" t="n">
-        <v>6.087393168206809E-7</v>
+        <v>9.931350864981103E-7</v>
       </c>
       <c r="F10" t="n">
-        <v>9.087647765560144E-4</v>
+        <v>0.0015066962745605775</v>
       </c>
       <c r="G10" t="n">
-        <v>5.693218969458101</v>
+        <v>5.216679990016933</v>
       </c>
     </row>
     <row r="11">
@@ -458,22 +440,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>1.556271942704931</v>
+        <v>1.5562719427049303</v>
       </c>
       <c r="C11" t="n">
         <v>0.07859959306590565</v>
       </c>
       <c r="D11" t="n">
-        <v>5.321711453792069</v>
+        <v>5.1851361304548815</v>
       </c>
       <c r="E11" t="n">
-        <v>6.773911791395265E-7</v>
+        <v>1.2041976835339605E-6</v>
       </c>
       <c r="F11" t="n">
-        <v>9.087647765560144E-4</v>
+        <v>0.0016096129636212618</v>
       </c>
       <c r="G11" t="n">
-        <v>5.598272798273426</v>
+        <v>5.0469376925416825</v>
       </c>
     </row>
     <row r="12">
@@ -481,22 +463,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>1.26066919360046</v>
+        <v>1.2606691936004593</v>
       </c>
       <c r="C12" t="n">
         <v>0.06367016129295251</v>
       </c>
       <c r="D12" t="n">
-        <v>5.303367121697727</v>
+        <v>5.167430362907562</v>
       </c>
       <c r="E12" t="n">
-        <v>7.321233735254255E-7</v>
+        <v>1.2967440017455604E-6</v>
       </c>
       <c r="F12" t="n">
-        <v>9.087647765560144E-4</v>
+        <v>0.0016096129636212618</v>
       </c>
       <c r="G12" t="n">
-        <v>5.529239636769503</v>
+        <v>4.981724219402107</v>
       </c>
     </row>
     <row r="13">
@@ -504,22 +486,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>2.1384219598743757</v>
+        <v>2.1407949336878453</v>
       </c>
       <c r="C13" t="n">
         <v>0.19380538675887746</v>
       </c>
       <c r="D13" t="n">
-        <v>5.195078188244623</v>
+        <v>5.068225150342339</v>
       </c>
       <c r="E13" t="n">
-        <v>1.1550990141579623E-6</v>
+        <v>1.9588378068591255E-6</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0013143101616094014</v>
+        <v>0.0022288309512378747</v>
       </c>
       <c r="G13" t="n">
-        <v>5.124204278094675</v>
+        <v>4.618504946627372</v>
       </c>
     </row>
     <row r="14">
@@ -527,22 +509,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6643856189774724</v>
+        <v>0.6643856189774746</v>
       </c>
       <c r="C14" t="n">
         <v>0.033554829241286485</v>
       </c>
       <c r="D14" t="n">
-        <v>5.102191672363486</v>
+        <v>4.972521676235325</v>
       </c>
       <c r="E14" t="n">
-        <v>1.7016167747042041E-6</v>
+        <v>2.904883222934178E-6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0017872211878316312</v>
+        <v>0.0030510211943033283</v>
       </c>
       <c r="G14" t="n">
-        <v>4.780248492754648</v>
+        <v>4.27169153199568</v>
       </c>
     </row>
     <row r="15">
@@ -550,22 +532,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>3.537396557162619</v>
+        <v>3.5586147683049423</v>
       </c>
       <c r="C15" t="n">
         <v>0.4292804908934432</v>
       </c>
       <c r="D15" t="n">
-        <v>4.879551833478222</v>
+        <v>4.793917261147692</v>
       </c>
       <c r="E15" t="n">
-        <v>4.2436046007538E-6</v>
+        <v>5.996303148881811E-6</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0041387269441923134</v>
+        <v>0.005848108799630875</v>
       </c>
       <c r="G15" t="n">
-        <v>3.969563226666631</v>
+        <v>3.634308825134312</v>
       </c>
     </row>
     <row r="16">
@@ -573,22 +555,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>2.960475362372043</v>
+        <v>2.935934942201301</v>
       </c>
       <c r="C16" t="n">
         <v>0.9313314638172071</v>
       </c>
       <c r="D16" t="n">
-        <v>4.847424775069911</v>
+        <v>4.70656559394068</v>
       </c>
       <c r="E16" t="n">
-        <v>4.833178800617412E-6</v>
+        <v>8.502693316785574E-6</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00439948155624201</v>
+        <v>0.007739718303159348</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8542496899619714</v>
+        <v>3.3274503072631294</v>
       </c>
     </row>
     <row r="17">
@@ -596,22 +578,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>2.419926235009248</v>
+        <v>2.4133799878241717</v>
       </c>
       <c r="C17" t="n">
         <v>0.20335125336185714</v>
       </c>
       <c r="D17" t="n">
-        <v>4.796274101475523</v>
+        <v>4.663403095718317</v>
       </c>
       <c r="E17" t="n">
-        <v>5.939798146661251E-6</v>
+        <v>1.0091026426383944E-5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005068875243407045</v>
+        <v>0.008611429676615398</v>
       </c>
       <c r="G17" t="n">
-        <v>3.671554491928374</v>
+        <v>3.1770477684502136</v>
       </c>
     </row>
     <row r="18">
@@ -619,22 +601,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>6.203150369314656</v>
+        <v>6.186746243125911</v>
       </c>
       <c r="C18" t="n">
         <v>2.268060939722845</v>
       </c>
       <c r="D18" t="n">
-        <v>4.723258446962083</v>
+        <v>4.60756856877653</v>
       </c>
       <c r="E18" t="n">
-        <v>7.955933128714727E-6</v>
+        <v>1.2577243516997587E-5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006044080814764083</v>
+        <v>0.010038963802255827</v>
       </c>
       <c r="G18" t="n">
-        <v>3.412713134053206</v>
+        <v>2.9837141747133664</v>
       </c>
     </row>
     <row r="19">
@@ -642,22 +624,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>3.4259667886781817</v>
+        <v>3.418951432607515</v>
       </c>
       <c r="C19" t="n">
         <v>0.5607555856199296</v>
       </c>
       <c r="D19" t="n">
-        <v>4.7228819173921055</v>
+        <v>4.594604803740543</v>
       </c>
       <c r="E19" t="n">
-        <v>7.967881548685622E-6</v>
+        <v>1.3234315837161631E-5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006044080814764083</v>
+        <v>0.010038963802255827</v>
       </c>
       <c r="G19" t="n">
-        <v>3.411384356758443</v>
+        <v>2.9390257866826754</v>
       </c>
     </row>
     <row r="20">
@@ -665,22 +647,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>2.454243209197946</v>
+        <v>2.3068578610192167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2213105127694468</v>
+        <v>1.1367976219914286</v>
       </c>
       <c r="D20" t="n">
-        <v>4.558254981443551</v>
+        <v>4.4496348287439895</v>
       </c>
       <c r="E20" t="n">
-        <v>1.525906461016452E-5</v>
+        <v>2.325973893526754E-5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.010752378836219703</v>
+        <v>0.016159978664003417</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8364931927564587</v>
+        <v>2.4445469319238224</v>
       </c>
     </row>
     <row r="21">
@@ -688,22 +670,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>2.3011091384431994</v>
+        <v>2.455506187919224</v>
       </c>
       <c r="C21" t="n">
-        <v>1.1367976219914286</v>
+        <v>0.2213105127694468</v>
       </c>
       <c r="D21" t="n">
-        <v>4.55015042642724</v>
+        <v>4.445089413230044</v>
       </c>
       <c r="E21" t="n">
-        <v>1.574978590335389E-5</v>
+        <v>2.3670687950788657E-5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.010752378836219703</v>
+        <v>0.016159978664003417</v>
       </c>
       <c r="G21" t="n">
-        <v>2.8085106167111107</v>
+        <v>2.429201739450381</v>
       </c>
     </row>
     <row r="22">
@@ -711,22 +693,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.087466606520182</v>
+        <v>-7.062886434274148</v>
       </c>
       <c r="C22" t="n">
         <v>3.9798619221241864</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.5198458439823845</v>
+        <v>-4.402343127964196</v>
       </c>
       <c r="E22" t="n">
-        <v>1.7723666010865757E-5</v>
+        <v>2.7894601147051094E-5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.011523758843445763</v>
+        <v>0.018136804002944554</v>
       </c>
       <c r="G22" t="n">
-        <v>2.70414926637636</v>
+        <v>2.285373393677899</v>
       </c>
     </row>
     <row r="23">
@@ -734,22 +716,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>1.4876842643996742</v>
+        <v>1.486495049425784</v>
       </c>
       <c r="C23" t="n">
         <v>0.11724576074494555</v>
       </c>
       <c r="D23" t="n">
-        <v>4.479021468045727</v>
+        <v>4.364478905641803</v>
       </c>
       <c r="E23" t="n">
-        <v>2.0764630638191394E-5</v>
+        <v>3.2236699992132246E-5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.012887284851539331</v>
+        <v>0.02000726825875335</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5642426266593574</v>
+        <v>2.1587057081249306</v>
       </c>
     </row>
     <row r="24">
@@ -757,22 +739,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>1.788360664858441</v>
+        <v>1.7854804564536144</v>
       </c>
       <c r="C24" t="n">
         <v>0.2672762990727348</v>
       </c>
       <c r="D24" t="n">
-        <v>4.420100023985115</v>
+        <v>4.300922541260636</v>
       </c>
       <c r="E24" t="n">
-        <v>2.605839121830156E-5</v>
+        <v>4.102967058347356E-5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.015469620595421283</v>
+        <v>0.02435735313681513</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3637162863596775</v>
+        <v>1.9476627866472125</v>
       </c>
     </row>
     <row r="25">
@@ -780,22 +762,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>3.9172740585316546</v>
+        <v>1.3352883959338926</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7555786272825333</v>
+        <v>0.28789762831299204</v>
       </c>
       <c r="D25" t="n">
-        <v>4.36393319433707</v>
+        <v>4.251447690776137</v>
       </c>
       <c r="E25" t="n">
-        <v>3.2303888901556256E-5</v>
+        <v>4.943208142516275E-5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.018378220794243713</v>
+        <v>0.02812273499079884</v>
       </c>
       <c r="G25" t="n">
-        <v>2.174128936798713</v>
+        <v>1.7847639774275397</v>
       </c>
     </row>
     <row r="26">
@@ -803,22 +785,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>1.3338077210391575</v>
+        <v>3.8801785946310265</v>
       </c>
       <c r="C26" t="n">
-        <v>0.28789762831299204</v>
+        <v>0.7555786272825333</v>
       </c>
       <c r="D26" t="n">
-        <v>4.339643333047094</v>
+        <v>4.231846921055253</v>
       </c>
       <c r="E26" t="n">
-        <v>3.543157686905323E-5</v>
+        <v>5.3199791124714584E-5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.019306962883481823</v>
+        <v>0.029055597920674116</v>
       </c>
       <c r="G26" t="n">
-        <v>2.0926197928043395</v>
+        <v>1.7205672131415017</v>
       </c>
     </row>
     <row r="27">
@@ -826,22 +808,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>1.8422139297421378</v>
+        <v>0.9446716917501602</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1894812084547937</v>
+        <v>0.07886217092987478</v>
       </c>
       <c r="D27" t="n">
-        <v>4.318320161158054</v>
+        <v>4.203437232569451</v>
       </c>
       <c r="E27" t="n">
-        <v>3.841631620657113E-5</v>
+        <v>5.9155001141924946E-5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.019306962883481823</v>
+        <v>0.029879512649754685</v>
       </c>
       <c r="G27" t="n">
-        <v>2.021307088004458</v>
+        <v>1.6278650500260081</v>
       </c>
     </row>
     <row r="28">
@@ -849,22 +831,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>1.674905819457785</v>
+        <v>1.8380282646081072</v>
       </c>
       <c r="C28" t="n">
-        <v>0.22220687142652676</v>
+        <v>0.1894812084547937</v>
       </c>
       <c r="D28" t="n">
-        <v>4.31010178255032</v>
+        <v>4.198826245797045</v>
       </c>
       <c r="E28" t="n">
-        <v>3.963022230167722E-5</v>
+        <v>6.0180130368445744E-5</v>
       </c>
       <c r="F28" t="n">
-        <v>0.019306962883481823</v>
+        <v>0.029879512649754685</v>
       </c>
       <c r="G28" t="n">
-        <v>1.9938822619356662</v>
+        <v>1.6128579719259966</v>
       </c>
     </row>
     <row r="29">
@@ -872,22 +854,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>2.0478746030073274</v>
+        <v>1.670698277142853</v>
       </c>
       <c r="C29" t="n">
-        <v>0.17515843085215593</v>
+        <v>0.22220687142652676</v>
       </c>
       <c r="D29" t="n">
-        <v>4.306139594276156</v>
+        <v>4.193991474755368</v>
       </c>
       <c r="E29" t="n">
-        <v>4.0228590822246346E-5</v>
+        <v>6.127335243834269E-5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.019306962883481823</v>
+        <v>0.029879512649754685</v>
       </c>
       <c r="G29" t="n">
-        <v>1.9806724640386353</v>
+        <v>1.5971342354985403</v>
       </c>
     </row>
     <row r="30">
@@ -895,22 +877,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9425062123531748</v>
+        <v>2.038027424187611</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07886217092987478</v>
+        <v>0.17515843085215593</v>
       </c>
       <c r="D30" t="n">
-        <v>4.3010730181470205</v>
+        <v>4.179465412033257</v>
       </c>
       <c r="E30" t="n">
-        <v>4.100643940390895E-5</v>
+        <v>6.467401527774994E-5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.019306962883481823</v>
+        <v>0.030450310503530958</v>
       </c>
       <c r="G30" t="n">
-        <v>1.9637921364859725</v>
+        <v>1.549964373823113</v>
       </c>
     </row>
     <row r="31">
@@ -918,22 +900,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>4.8675029703541055</v>
+        <v>4.864425520645313</v>
       </c>
       <c r="C31" t="n">
         <v>1.1835776882453248</v>
       </c>
       <c r="D31" t="n">
-        <v>4.238969457144269</v>
+        <v>4.128996756699274</v>
       </c>
       <c r="E31" t="n">
-        <v>5.1799884734740287E-5</v>
+        <v>7.79560911321525E-5</v>
       </c>
       <c r="F31" t="n">
-        <v>0.023575854205604794</v>
+        <v>0.03548041561061367</v>
       </c>
       <c r="G31" t="n">
-        <v>1.7579340040538458</v>
+        <v>1.386926081373078</v>
       </c>
     </row>
     <row r="32">
@@ -941,22 +923,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>2.8222523306671117</v>
+        <v>2.8134321664553754</v>
       </c>
       <c r="C32" t="n">
         <v>0.44322895883522945</v>
       </c>
       <c r="D32" t="n">
-        <v>4.211970680928601</v>
+        <v>4.110317642138339</v>
       </c>
       <c r="E32" t="n">
-        <v>5.730207000469242E-5</v>
+        <v>8.350690290294427E-5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.025238789156260332</v>
+        <v>0.03678075007215487</v>
       </c>
       <c r="G32" t="n">
-        <v>1.6690522387260867</v>
+        <v>1.3269194287182202</v>
       </c>
     </row>
     <row r="33">
@@ -964,22 +946,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6719341659795095</v>
+        <v>0.6732273519571389</v>
       </c>
       <c r="C33" t="n">
         <v>0.06385785954431679</v>
       </c>
       <c r="D33" t="n">
-        <v>4.148149464336904</v>
+        <v>4.052997972139919</v>
       </c>
       <c r="E33" t="n">
-        <v>7.263335100864014E-5</v>
+        <v>1.0300882750902009E-4</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03007027495295978</v>
+        <v>0.04395257908775501</v>
       </c>
       <c r="G33" t="n">
-        <v>1.4604465337144577</v>
+        <v>1.143926795378098</v>
       </c>
     </row>
     <row r="34">
@@ -987,22 +969,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>1.2867263949577947</v>
+        <v>1.2848440025351606</v>
       </c>
       <c r="C34" t="n">
         <v>0.21367303145182284</v>
       </c>
       <c r="D34" t="n">
-        <v>4.147990451556576</v>
+        <v>4.039271465262763</v>
       </c>
       <c r="E34" t="n">
-        <v>7.267607100100138E-5</v>
+        <v>1.0828957063663543E-4</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03007027495295978</v>
+        <v>0.04480563022644304</v>
       </c>
       <c r="G34" t="n">
-        <v>1.4599294376320913</v>
+        <v>1.100363925155012</v>
       </c>
     </row>
     <row r="35">
@@ -1010,22 +992,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>3.0186586901640275</v>
+        <v>3.3784927405696132</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4849016772412223</v>
+        <v>1.4892984977457286</v>
       </c>
       <c r="D35" t="n">
-        <v>4.129132969104074</v>
+        <v>4.030540917821303</v>
       </c>
       <c r="E35" t="n">
-        <v>7.791709586425004E-5</v>
+        <v>1.1178224713870922E-4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0302123845085815</v>
+        <v>0.044890435365645166</v>
       </c>
       <c r="G35" t="n">
-        <v>1.398700729877433</v>
+        <v>1.0727088275659762</v>
       </c>
     </row>
     <row r="36">
@@ -1033,22 +1015,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>3.071714772154136</v>
+        <v>3.06583551489931</v>
       </c>
       <c r="C36" t="n">
         <v>0.4519713874613502</v>
       </c>
       <c r="D36" t="n">
-        <v>4.121106610232612</v>
+        <v>4.010925445322537</v>
       </c>
       <c r="E36" t="n">
-        <v>8.025629761519575E-5</v>
+        <v>1.2002735836271797E-4</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0302123845085815</v>
+        <v>0.04612274290121561</v>
       </c>
       <c r="G36" t="n">
-        <v>1.3726966404882406</v>
+        <v>1.0107236704185043</v>
       </c>
     </row>
     <row r="37">
@@ -1056,22 +1038,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>3.3698124898651454</v>
+        <v>2.9998644576465288</v>
       </c>
       <c r="C37" t="n">
-        <v>1.4892984977457286</v>
+        <v>0.4849016772412223</v>
       </c>
       <c r="D37" t="n">
-        <v>4.119395213033065</v>
+        <v>4.004396992158435</v>
       </c>
       <c r="E37" t="n">
-        <v>8.076371533318609E-5</v>
+        <v>1.2289842109841994E-4</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0302123845085815</v>
+        <v>0.04612274290121561</v>
       </c>
       <c r="G37" t="n">
-        <v>1.3671563955999648</v>
+        <v>0.9901396477569442</v>
       </c>
     </row>
     <row r="38">
@@ -1079,22 +1061,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>6.3485661272299545</v>
+        <v>6.320340805024014</v>
       </c>
       <c r="C38" t="n">
         <v>4.05044523769029</v>
       </c>
       <c r="D38" t="n">
-        <v>4.115698213405796</v>
+        <v>3.9957751825718577</v>
       </c>
       <c r="E38" t="n">
-        <v>8.187038426962908E-5</v>
+        <v>1.2679098468040202E-4</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0302123845085815</v>
+        <v>0.04612274290121561</v>
       </c>
       <c r="G38" t="n">
-        <v>1.3551935192502862</v>
+        <v>0.9629906329346047</v>
       </c>
     </row>
     <row r="39">
@@ -1102,22 +1084,22 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>4.380754110059347</v>
+        <v>2.0653562287469245</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9003363696261087</v>
+        <v>0.19545417816158758</v>
       </c>
       <c r="D39" t="n">
-        <v>4.090657340043461</v>
+        <v>3.987390980007262</v>
       </c>
       <c r="E39" t="n">
-        <v>8.975852540000835E-5</v>
+        <v>1.3068927721250644E-4</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03202791964719861</v>
+        <v>0.04612274290121561</v>
       </c>
       <c r="G39" t="n">
-        <v>1.2743562839451483</v>
+        <v>0.9366284282089916</v>
       </c>
     </row>
     <row r="40">
@@ -1125,160 +1107,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>2.0627883901241084</v>
+        <v>4.3761302602571766</v>
       </c>
       <c r="C40" t="n">
-        <v>0.19545417816158758</v>
+        <v>0.9003363696261087</v>
       </c>
       <c r="D40" t="n">
-        <v>4.085469570049305</v>
+        <v>3.985170716233627</v>
       </c>
       <c r="E40" t="n">
-        <v>9.148153407358619E-5</v>
+        <v>1.3174066011040054E-4</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03202791964719861</v>
+        <v>0.04612274290121561</v>
       </c>
       <c r="G40" t="n">
-        <v>1.257650791561728</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.081481526723343</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.1443026021854035</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.054146684446141</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.025784629805687E-4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.035015158338417125</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.1570918734955935</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1.795761676863265</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.24220596094977015</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.0386331681923595</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.0854153301609649E-4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.03614697784882393</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.107482703157788</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.1902882459144686</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5501161477252936</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3.9694054378359676</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1.3944258253605483E-4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.045332119570173635</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.8877005105383944</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3.982580952884644</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.226738842900662</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.949312167227904</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1.4988433446531474E-4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.04759350471603273</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.8244014591622273</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.263443513224843</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.14541484401656432</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.942855816401832</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1.5339531356235175E-4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.04760135480409888</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.8041097120313196</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="n">
-        <v>5.604575559173843</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2.674590548644828</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.9353736181376147</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1.5756251689732625E-4</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.047807969015913165</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.7806227702965538</v>
+        <v>0.9296537050515852</v>
       </c>
     </row>
   </sheetData>
@@ -1297,15 +1141,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_3.xlsx
+++ b/docs/LMER_Microglia_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>logFC</t>
   </si>
@@ -39,43 +39,97 @@
     <t>Tmem170</t>
   </si>
   <si>
+    <t>Pigq</t>
+  </si>
+  <si>
+    <t>Pcid2</t>
+  </si>
+  <si>
+    <t>Rnf14</t>
+  </si>
+  <si>
+    <t>Tbata</t>
+  </si>
+  <si>
     <t>AY036118</t>
   </si>
   <si>
-    <t>Tbata</t>
-  </si>
-  <si>
-    <t>Cst7</t>
+    <t>BC026585</t>
+  </si>
+  <si>
+    <t>C1galt1</t>
+  </si>
+  <si>
+    <t>Ppil1</t>
+  </si>
+  <si>
+    <t>Rbmx2</t>
+  </si>
+  <si>
+    <t>Cnnm4</t>
+  </si>
+  <si>
+    <t>Mgmt</t>
+  </si>
+  <si>
+    <t>Alad</t>
+  </si>
+  <si>
+    <t>Tpst2</t>
+  </si>
+  <si>
+    <t>Gt(ROSA)26Sor</t>
+  </si>
+  <si>
+    <t>Gm15564</t>
+  </si>
+  <si>
+    <t>Fkbp14</t>
+  </si>
+  <si>
+    <t>Clec7a</t>
+  </si>
+  <si>
+    <t>Zfp712</t>
+  </si>
+  <si>
+    <t>Gm21092</t>
+  </si>
+  <si>
+    <t>Alg14</t>
+  </si>
+  <si>
+    <t>Cox18</t>
+  </si>
+  <si>
+    <t>Acot8</t>
+  </si>
+  <si>
+    <t>AC210924.1</t>
+  </si>
+  <si>
+    <t>Wsb2</t>
+  </si>
+  <si>
+    <t>Smim8</t>
   </si>
   <si>
     <t>Rn7s2</t>
   </si>
   <si>
-    <t>Mgmt</t>
-  </si>
-  <si>
-    <t>Gm15564</t>
-  </si>
-  <si>
-    <t>Lyz2</t>
-  </si>
-  <si>
-    <t>Xist</t>
-  </si>
-  <si>
-    <t>AC099934.1</t>
-  </si>
-  <si>
-    <t>Ctsb</t>
-  </si>
-  <si>
-    <t>Prrx1</t>
-  </si>
-  <si>
-    <t>Clec7a</t>
-  </si>
-  <si>
-    <t>Slc25a37</t>
+    <t>Zfp513</t>
+  </si>
+  <si>
+    <t>Bin2</t>
+  </si>
+  <si>
+    <t>Stam</t>
+  </si>
+  <si>
+    <t>Eif3d</t>
+  </si>
+  <si>
+    <t>Dand5</t>
   </si>
   <si>
     <t>x</t>
@@ -158,19 +212,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-10.328711012579582</v>
+        <v>-10.435504726356807</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.160890235430365</v>
+        <v>-8.750794910709061</v>
       </c>
       <c r="D2" t="n">
-        <v>4.513323322706006E-19</v>
+        <v>7.144606470833765E-14</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16249166482278E-15</v>
+        <v>8.304176101050084E-10</v>
       </c>
       <c r="F2" t="n">
-        <v>27.507773188820757</v>
+        <v>19.64872880507857</v>
       </c>
     </row>
     <row r="3">
@@ -178,19 +232,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4.871393525863475</v>
+        <v>4.74782159240878</v>
       </c>
       <c r="C3" t="n">
-        <v>10.709819367122881</v>
+        <v>8.071204790856205</v>
       </c>
       <c r="D3" t="n">
-        <v>4.1626559769649E-18</v>
+        <v>2.0054250433058234E-12</v>
       </c>
       <c r="E3" t="n">
-        <v>2.8418452354739375E-14</v>
+        <v>1.1654527639171792E-8</v>
       </c>
       <c r="F3" t="n">
-        <v>25.819489497889517</v>
+        <v>16.750148315509172</v>
       </c>
     </row>
     <row r="4">
@@ -198,19 +252,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2.312576563351804</v>
+        <v>2.312576563351808</v>
       </c>
       <c r="C4" t="n">
-        <v>9.943834475563767</v>
+        <v>7.570611578109841</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8472537313687513E-16</v>
+        <v>2.2742111119142463E-11</v>
       </c>
       <c r="E4" t="n">
-        <v>8.407467482702977E-13</v>
+        <v>8.811051917926428E-8</v>
       </c>
       <c r="F4" t="n">
-        <v>22.89793046284984</v>
+        <v>14.627974273468878</v>
       </c>
     </row>
     <row r="5">
@@ -218,19 +272,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.824062062166762</v>
+        <v>5.878758301270105</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.8503167508543905</v>
+        <v>5.845234606290326</v>
       </c>
       <c r="D5" t="n">
-        <v>6.871433829026564E-10</v>
+        <v>6.93834415671199E-8</v>
       </c>
       <c r="E5" t="n">
-        <v>2.345563937538218E-6</v>
+        <v>1.6860689146967387E-4</v>
       </c>
       <c r="F5" t="n">
-        <v>10.8151425831005</v>
+        <v>7.56862287991914</v>
       </c>
     </row>
     <row r="6">
@@ -238,19 +292,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>2.5528294422873574</v>
+        <v>2.8167318388059543</v>
       </c>
       <c r="C6" t="n">
-        <v>6.559803561408605</v>
+        <v>5.8352114073110295</v>
       </c>
       <c r="D6" t="n">
-        <v>2.66919033631749E-9</v>
+        <v>7.253157165519826E-8</v>
       </c>
       <c r="E6" t="n">
-        <v>7.289024970415802E-6</v>
+        <v>1.6860689146967387E-4</v>
       </c>
       <c r="F6" t="n">
-        <v>9.704261043904038</v>
+        <v>7.529466816882049</v>
       </c>
     </row>
     <row r="7">
@@ -258,19 +312,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.294668625704719</v>
+        <v>3.785585407575947</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.747581232818558</v>
+        <v>5.691128364834456</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0547602643617758E-7</v>
+        <v>1.3676275642123023E-7</v>
       </c>
       <c r="E7" t="n">
-        <v>2.4002827749326143E-4</v>
+        <v>2.4230684976482626E-4</v>
       </c>
       <c r="F7" t="n">
-        <v>6.679710777692344</v>
+        <v>6.96980434941751</v>
       </c>
     </row>
     <row r="8">
@@ -278,19 +332,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>3.502064674024308</v>
+        <v>2.850811964035673</v>
       </c>
       <c r="C8" t="n">
-        <v>5.387672880707122</v>
+        <v>5.676298942199763</v>
       </c>
       <c r="D8" t="n">
-        <v>5.030159966319199E-7</v>
+        <v>1.4593030614761972E-7</v>
       </c>
       <c r="E8" t="n">
-        <v>9.81168631144605E-4</v>
+        <v>2.4230684976482626E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>5.390061436784698</v>
+        <v>6.912551049556958</v>
       </c>
     </row>
     <row r="9">
@@ -298,19 +352,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2.550932681703529</v>
+        <v>-8.707704149136239</v>
       </c>
       <c r="C9" t="n">
-        <v>5.248401807110129</v>
+        <v>-5.249089255050405</v>
       </c>
       <c r="D9" t="n">
-        <v>9.088759540029298E-7</v>
+        <v>9.144553546245268E-7</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0015512240344945005</v>
+        <v>0.0012847194232672974</v>
       </c>
       <c r="F9" t="n">
-        <v>4.901286398282213</v>
+        <v>5.2935749854727785</v>
       </c>
     </row>
     <row r="10">
@@ -318,19 +372,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2.05922484469582</v>
+        <v>4.4242474277327695</v>
       </c>
       <c r="C10" t="n">
-        <v>5.108043300781226</v>
+        <v>5.229093259282045</v>
       </c>
       <c r="D10" t="n">
-        <v>1.6369680653338253E-6</v>
+        <v>9.94792636101323E-7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0024834624404520057</v>
+        <v>0.0012847194232672974</v>
       </c>
       <c r="F10" t="n">
-        <v>4.4150535590269655</v>
+        <v>5.219329427552363</v>
       </c>
     </row>
     <row r="11">
@@ -338,19 +392,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.371453635229949</v>
+        <v>1.5562719427049303</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.063970667510882</v>
+        <v>5.092262354079639</v>
       </c>
       <c r="D11" t="n">
-        <v>1.965854243928351E-6</v>
+        <v>1.762376468956112E-6</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002549061810082732</v>
+        <v>0.002048410169867689</v>
       </c>
       <c r="F11" t="n">
-        <v>4.263752973494599</v>
+        <v>4.715238141992309</v>
       </c>
     </row>
     <row r="12">
@@ -358,19 +412,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>3.214980117434491</v>
+        <v>2.1407949336878453</v>
       </c>
       <c r="C12" t="n">
-        <v>5.053431085809598</v>
+        <v>5.0271967910482935</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0535872206613484E-6</v>
+        <v>2.306871307175193E-6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002549061810082732</v>
+        <v>0.002265758089389002</v>
       </c>
       <c r="F12" t="n">
-        <v>4.227670839369129</v>
+        <v>4.478028885002809</v>
       </c>
     </row>
     <row r="13">
@@ -378,19 +432,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>1.361295569950998</v>
+        <v>1.2606691936004593</v>
       </c>
       <c r="C13" t="n">
-        <v>4.751468486341235</v>
+        <v>5.023816560988018</v>
       </c>
       <c r="D13" t="n">
-        <v>7.028230169956531E-6</v>
+        <v>2.3392495115433214E-6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00799695456171554</v>
+        <v>0.002265758089389002</v>
       </c>
       <c r="F13" t="n">
-        <v>3.2110924856522995</v>
+        <v>4.465750656558365</v>
       </c>
     </row>
     <row r="14">
@@ -398,19 +452,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.050346587391493</v>
+        <v>3.5586147683049423</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.471613899902296</v>
+        <v>4.78839664013122</v>
       </c>
       <c r="D14" t="n">
-        <v>2.117072925448434E-5</v>
+        <v>6.100241987301763E-6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0222357797877484</v>
+        <v>0.005454085586031414</v>
       </c>
       <c r="F14" t="n">
-        <v>2.300869132630063</v>
+        <v>3.6219747077114626</v>
       </c>
     </row>
     <row r="15">
@@ -418,19 +472,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1.2165402928079456</v>
+        <v>2.935934942201301</v>
       </c>
       <c r="C15" t="n">
-        <v>4.398248393685262</v>
+        <v>4.694579497809867</v>
       </c>
       <c r="D15" t="n">
-        <v>2.8087977966849224E-5</v>
+        <v>8.876058217050556E-6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02739380365423995</v>
+        <v>0.0073690303326270435</v>
       </c>
       <c r="F15" t="n">
-        <v>2.067734537001031</v>
+        <v>3.2922064189466127</v>
       </c>
     </row>
     <row r="16">
@@ -438,19 +492,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.4135585487206175</v>
+        <v>2.4133799878241717</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.2925754394128655</v>
+        <v>4.641552240713707</v>
       </c>
       <c r="D16" t="n">
-        <v>4.200277349729778E-5</v>
+        <v>1.095193449935154E-5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03823372462214026</v>
+        <v>0.008486288979064198</v>
       </c>
       <c r="F16" t="n">
-        <v>1.7361502395645019</v>
+        <v>3.107521540579084</v>
       </c>
     </row>
     <row r="17">
@@ -458,19 +512,379 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>3.9071856664625897</v>
+        <v>6.186746243125911</v>
       </c>
       <c r="C17" t="n">
-        <v>4.257720584646974</v>
+        <v>4.613049329630236</v>
       </c>
       <c r="D17" t="n">
-        <v>4.790343187022083E-5</v>
+        <v>1.2254934734828261E-5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0408795911722497</v>
+        <v>0.008902444151431805</v>
       </c>
       <c r="F17" t="n">
-        <v>1.6278978118343135</v>
+        <v>3.0087699472696823</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.418951432607515</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.589388479492225</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.3449600044634526E-5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.009195570665811005</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.9270731336864486</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.3068578610192167</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.428893854218782</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.5096061281343462E-5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.015405907093553432</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.379745507948936</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.455506187919224</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.427985699601665</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.5183879788136904E-5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.015405907093553432</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.3766830184675083</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-7.062886434274148</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.408944021459021</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.7095063550805654E-5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.015746296182550704</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.3125616749223887</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.486495049425784</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.305479686248821</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.0188283946699624E-5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.02224325830059475</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.9672359988931163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.7854804564536144</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.264565287322058</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.689652606386683E-5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0247762873836511</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.8321391746191482</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.8801785946310265</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.2318809395763575</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.301789620227646E-5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.026792478589524313</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.7248226605214496</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.8380282646081072</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.167779299941831</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.732961988886346E-5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03158837300650732</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.515931898340538</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.038027424187611</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.1562755032483665</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.026358806925983E-5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03158837300650732</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.4786680907993812</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.670698277142853</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.15475130338763</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.066142116228084E-5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03158837300650732</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.4737359631828095</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.864425520645313</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.132632219068278</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.66840344306677E-5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.03301105674769076</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.402297471315082</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.8134321664553754</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.103153990330775</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.548049350724022E-5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.03548356342980903</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.3074891364616272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.3784927405696132</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.0288240011572185</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.121681455511833E-4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.04495621916349667</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.0704717731984195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.06583551489931</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.007073067429025</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.2138058106906361E-4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.04522655648495274</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.0016742650795774</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6.320340805024014</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.001683126459997</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.2377305188249424E-4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.04522655648495274</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9846656274094716</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.9998644576465288</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.000029576997175</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.2451602921091694E-4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.04522655648495274</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9794508027526572</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.3761302602571766</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.987872039188488</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.3011127043184695E-4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.04582676655240476</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9411550086916716</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.0653562287469245</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.968755758786921</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.3939856406625258E-4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.04765380912182511</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8811023581166264</v>
       </c>
     </row>
   </sheetData>
@@ -489,15 +903,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_3.xlsx
+++ b/docs/LMER_Microglia_3.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>logFC</t>
+  </si>
+  <si>
+    <t>AveExpr</t>
   </si>
   <si>
     <t>t</t>
@@ -206,684 +209,789 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>-10.435504726356807</v>
       </c>
       <c r="C2" t="n">
+        <v>8.936278847934839</v>
+      </c>
+      <c r="D2" t="n">
         <v>-8.750794910709061</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>7.144606470833765E-14</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.304176101050084E-10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>19.64872880507857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>4.74782159240878</v>
       </c>
       <c r="C3" t="n">
+        <v>1.8904150301026563</v>
+      </c>
+      <c r="D3" t="n">
         <v>8.071204790856205</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>2.0054250433058234E-12</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.1654527639171792E-8</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>16.750148315509172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>2.312576563351808</v>
       </c>
       <c r="C4" t="n">
+        <v>0.7419952870327355</v>
+      </c>
+      <c r="D4" t="n">
         <v>7.570611578109841</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2.2742111119142463E-11</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.811051917926428E-8</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>14.627974273468878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>5.878758301270105</v>
       </c>
       <c r="C5" t="n">
+        <v>0.9896187333491764</v>
+      </c>
+      <c r="D5" t="n">
         <v>5.845234606290326</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>6.93834415671199E-8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.6860689146967387E-4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.56862287991914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>2.8167318388059543</v>
       </c>
       <c r="C6" t="n">
+        <v>0.18547694763548564</v>
+      </c>
+      <c r="D6" t="n">
         <v>5.8352114073110295</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>7.253157165519826E-8</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.6860689146967387E-4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7.529466816882049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>3.785585407575947</v>
       </c>
       <c r="C7" t="n">
+        <v>0.3858669352111885</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.691128364834456</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1.3676275642123023E-7</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2.4230684976482626E-4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.96980434941751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>2.850811964035673</v>
       </c>
       <c r="C8" t="n">
+        <v>0.830685850283641</v>
+      </c>
+      <c r="D8" t="n">
         <v>5.676298942199763</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1.4593030614761972E-7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.4230684976482626E-4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>6.912551049556958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>-8.707704149136239</v>
       </c>
       <c r="C9" t="n">
+        <v>5.39570783510801</v>
+      </c>
+      <c r="D9" t="n">
         <v>-5.249089255050405</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>9.144553546245268E-7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.0012847194232672974</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.2935749854727785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>4.4242474277327695</v>
       </c>
       <c r="C10" t="n">
+        <v>0.9085681725740155</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.229093259282045</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>9.94792636101323E-7</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.0012847194232672974</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>5.219329427552363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>1.5562719427049303</v>
       </c>
       <c r="C11" t="n">
+        <v>0.07859959306590565</v>
+      </c>
+      <c r="D11" t="n">
         <v>5.092262354079639</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1.762376468956112E-6</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002048410169867689</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.715238141992309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>2.1407949336878453</v>
       </c>
       <c r="C12" t="n">
+        <v>0.19380538675887746</v>
+      </c>
+      <c r="D12" t="n">
         <v>5.0271967910482935</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>2.306871307175193E-6</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.002265758089389002</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>4.478028885002809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>1.2606691936004593</v>
       </c>
       <c r="C13" t="n">
+        <v>0.06367016129295251</v>
+      </c>
+      <c r="D13" t="n">
         <v>5.023816560988018</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>2.3392495115433214E-6</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002265758089389002</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>4.465750656558365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>3.5586147683049423</v>
       </c>
       <c r="C14" t="n">
+        <v>0.4292804908934432</v>
+      </c>
+      <c r="D14" t="n">
         <v>4.78839664013122</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>6.100241987301763E-6</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.005454085586031414</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3.6219747077114626</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>2.935934942201301</v>
       </c>
       <c r="C15" t="n">
+        <v>0.9313314638172071</v>
+      </c>
+      <c r="D15" t="n">
         <v>4.694579497809867</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>8.876058217050556E-6</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.0073690303326270435</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>3.2922064189466127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>2.4133799878241717</v>
       </c>
       <c r="C16" t="n">
+        <v>0.20335125336185714</v>
+      </c>
+      <c r="D16" t="n">
         <v>4.641552240713707</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>1.095193449935154E-5</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.008486288979064198</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3.107521540579084</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>6.186746243125911</v>
       </c>
       <c r="C17" t="n">
+        <v>2.268060939722845</v>
+      </c>
+      <c r="D17" t="n">
         <v>4.613049329630236</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>1.2254934734828261E-5</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.008902444151431805</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>3.0087699472696823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>3.418951432607515</v>
       </c>
       <c r="C18" t="n">
+        <v>0.5607555856199296</v>
+      </c>
+      <c r="D18" t="n">
         <v>4.589388479492225</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>1.3449600044634526E-5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.009195570665811005</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.9270731336864486</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>2.3068578610192167</v>
       </c>
       <c r="C19" t="n">
+        <v>1.1367976219914286</v>
+      </c>
+      <c r="D19" t="n">
         <v>4.428893854218782</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>2.5096061281343462E-5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.015405907093553432</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2.379745507948936</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
         <v>2.455506187919224</v>
       </c>
       <c r="C20" t="n">
+        <v>0.2213105127694468</v>
+      </c>
+      <c r="D20" t="n">
         <v>4.427985699601665</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>2.5183879788136904E-5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.015405907093553432</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2.3766830184675083</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>-7.062886434274148</v>
       </c>
       <c r="C21" t="n">
+        <v>3.9798619221241864</v>
+      </c>
+      <c r="D21" t="n">
         <v>-4.408944021459021</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>2.7095063550805654E-5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.015746296182550704</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2.3125616749223887</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
         <v>1.486495049425784</v>
       </c>
       <c r="C22" t="n">
+        <v>0.11724576074494555</v>
+      </c>
+      <c r="D22" t="n">
         <v>4.305479686248821</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>4.0188283946699624E-5</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.02224325830059475</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1.9672359988931163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
         <v>1.7854804564536144</v>
       </c>
       <c r="C23" t="n">
+        <v>0.2672762990727348</v>
+      </c>
+      <c r="D23" t="n">
         <v>4.264565287322058</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>4.689652606386683E-5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.0247762873836511</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1.8321391746191482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>3.8801785946310265</v>
       </c>
       <c r="C24" t="n">
+        <v>0.7555786272825333</v>
+      </c>
+      <c r="D24" t="n">
         <v>4.2318809395763575</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>5.301789620227646E-5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.026792478589524313</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1.7248226605214496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
         <v>1.8380282646081072</v>
       </c>
       <c r="C25" t="n">
+        <v>0.1894812084547937</v>
+      </c>
+      <c r="D25" t="n">
         <v>4.167779299941831</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>6.732961988886346E-5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.03158837300650732</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1.515931898340538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
         <v>2.038027424187611</v>
       </c>
       <c r="C26" t="n">
+        <v>0.17515843085215593</v>
+      </c>
+      <c r="D26" t="n">
         <v>4.1562755032483665</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>7.026358806925983E-5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.03158837300650732</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.4786680907993812</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
         <v>1.670698277142853</v>
       </c>
       <c r="C27" t="n">
+        <v>0.22220687142652676</v>
+      </c>
+      <c r="D27" t="n">
         <v>4.15475130338763</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>7.066142116228084E-5</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.03158837300650732</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1.4737359631828095</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="n">
         <v>4.864425520645313</v>
       </c>
       <c r="C28" t="n">
+        <v>1.1835776882453248</v>
+      </c>
+      <c r="D28" t="n">
         <v>4.132632219068278</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>7.66840344306677E-5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.03301105674769076</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>1.402297471315082</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>2.8134321664553754</v>
       </c>
       <c r="C29" t="n">
+        <v>0.44322895883522945</v>
+      </c>
+      <c r="D29" t="n">
         <v>4.103153990330775</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>8.548049350724022E-5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.03548356342980903</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>1.3074891364616272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>3.3784927405696132</v>
       </c>
       <c r="C30" t="n">
+        <v>1.4892984977457286</v>
+      </c>
+      <c r="D30" t="n">
         <v>4.0288240011572185</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1.121681455511833E-4</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.04495621916349667</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>1.0704717731984195</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>3.06583551489931</v>
       </c>
       <c r="C31" t="n">
+        <v>0.4519713874613502</v>
+      </c>
+      <c r="D31" t="n">
         <v>4.007073067429025</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>1.2138058106906361E-4</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.04522655648495274</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>1.0016742650795774</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>6.320340805024014</v>
       </c>
       <c r="C32" t="n">
+        <v>4.05044523769029</v>
+      </c>
+      <c r="D32" t="n">
         <v>4.001683126459997</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>1.2377305188249424E-4</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.04522655648495274</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.9846656274094716</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>2.9998644576465288</v>
       </c>
       <c r="C33" t="n">
+        <v>0.4849016772412223</v>
+      </c>
+      <c r="D33" t="n">
         <v>4.000029576997175</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>1.2451602921091694E-4</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.04522655648495274</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.9794508027526572</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
         <v>4.3761302602571766</v>
       </c>
       <c r="C34" t="n">
+        <v>0.9003363696261087</v>
+      </c>
+      <c r="D34" t="n">
         <v>3.987872039188488</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>1.3011127043184695E-4</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.04582676655240476</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.9411550086916716</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="n">
         <v>2.0653562287469245</v>
       </c>
       <c r="C35" t="n">
+        <v>0.19545417816158758</v>
+      </c>
+      <c r="D35" t="n">
         <v>3.968755758786921</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>1.3939856406625258E-4</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.04765380912182511</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.8811023581166264</v>
       </c>
     </row>
@@ -903,15 +1011,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_3.xlsx
+++ b/docs/LMER_Microglia_3.xlsx
@@ -247,7 +247,7 @@
         <v>1.8904150301026563</v>
       </c>
       <c r="D3" t="n">
-        <v>8.071204790856205</v>
+        <v>8.071204790856203</v>
       </c>
       <c r="E3" t="n">
         <v>2.0054250433058234E-12</v>
@@ -256,7 +256,7 @@
         <v>1.1654527639171792E-8</v>
       </c>
       <c r="G3" t="n">
-        <v>16.750148315509172</v>
+        <v>16.75014831550915</v>
       </c>
     </row>
     <row r="4">
@@ -316,7 +316,7 @@
         <v>0.18547694763548564</v>
       </c>
       <c r="D6" t="n">
-        <v>5.8352114073110295</v>
+        <v>5.835211407311029</v>
       </c>
       <c r="E6" t="n">
         <v>7.253157165519826E-8</v>
@@ -325,7 +325,7 @@
         <v>1.6860689146967387E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>7.529466816882049</v>
+        <v>7.5294668168820404</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         <v>1.1367976219914286</v>
       </c>
       <c r="D19" t="n">
-        <v>4.428893854218782</v>
+        <v>4.4288938542187815</v>
       </c>
       <c r="E19" t="n">
-        <v>2.5096061281343462E-5</v>
+        <v>2.509606128134366E-5</v>
       </c>
       <c r="F19" t="n">
         <v>0.015405907093553432</v>
@@ -877,7 +877,7 @@
         <v>0.04495621916349667</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0704717731984195</v>
+        <v>1.0704717731984177</v>
       </c>
     </row>
     <row r="31">
@@ -983,13 +983,13 @@
         <v>0.19545417816158758</v>
       </c>
       <c r="D35" t="n">
-        <v>3.968755758786921</v>
+        <v>3.96875575878692</v>
       </c>
       <c r="E35" t="n">
-        <v>1.3939856406625258E-4</v>
+        <v>1.39398564066253E-4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04765380912182511</v>
+        <v>0.047653809121825264</v>
       </c>
       <c r="G35" t="n">
         <v>0.8811023581166264</v>

--- a/docs/LMER_Microglia_3.xlsx
+++ b/docs/LMER_Microglia_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>logFC</t>
   </si>
@@ -33,115 +33,310 @@
     <t>B</t>
   </si>
   <si>
-    <t>Apoe</t>
-  </si>
-  <si>
-    <t>Rn7s1</t>
-  </si>
-  <si>
-    <t>Tmem170</t>
-  </si>
-  <si>
-    <t>Pigq</t>
-  </si>
-  <si>
-    <t>Pcid2</t>
-  </si>
-  <si>
-    <t>Rnf14</t>
-  </si>
-  <si>
-    <t>Tbata</t>
-  </si>
-  <si>
-    <t>AY036118</t>
-  </si>
-  <si>
-    <t>BC026585</t>
-  </si>
-  <si>
-    <t>C1galt1</t>
-  </si>
-  <si>
-    <t>Ppil1</t>
-  </si>
-  <si>
-    <t>Rbmx2</t>
-  </si>
-  <si>
-    <t>Cnnm4</t>
-  </si>
-  <si>
-    <t>Mgmt</t>
-  </si>
-  <si>
-    <t>Alad</t>
-  </si>
-  <si>
-    <t>Tpst2</t>
-  </si>
-  <si>
-    <t>Gt(ROSA)26Sor</t>
-  </si>
-  <si>
-    <t>Gm15564</t>
-  </si>
-  <si>
-    <t>Fkbp14</t>
-  </si>
-  <si>
-    <t>Clec7a</t>
-  </si>
-  <si>
-    <t>Zfp712</t>
-  </si>
-  <si>
-    <t>Gm21092</t>
-  </si>
-  <si>
-    <t>Alg14</t>
-  </si>
-  <si>
-    <t>Cox18</t>
-  </si>
-  <si>
-    <t>Acot8</t>
-  </si>
-  <si>
-    <t>AC210924.1</t>
-  </si>
-  <si>
-    <t>Wsb2</t>
-  </si>
-  <si>
-    <t>Smim8</t>
-  </si>
-  <si>
-    <t>Rn7s2</t>
-  </si>
-  <si>
-    <t>Zfp513</t>
-  </si>
-  <si>
-    <t>Bin2</t>
-  </si>
-  <si>
-    <t>Stam</t>
-  </si>
-  <si>
-    <t>Eif3d</t>
-  </si>
-  <si>
-    <t>Dand5</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>Gm11225</t>
+  </si>
+  <si>
+    <t>Prickle2</t>
+  </si>
+  <si>
+    <t>Mrpl23-ps1</t>
+  </si>
+  <si>
+    <t>AC102431.2</t>
+  </si>
+  <si>
+    <t>Dusp23</t>
+  </si>
+  <si>
+    <t>Gnaz</t>
+  </si>
+  <si>
+    <t>Zbtb20</t>
+  </si>
+  <si>
+    <t>Gm16157</t>
+  </si>
+  <si>
+    <t>Rps2-ps10</t>
+  </si>
+  <si>
+    <t>Gm28320</t>
+  </si>
+  <si>
+    <t>Dpm1</t>
+  </si>
+  <si>
+    <t>Gm37144</t>
+  </si>
+  <si>
+    <t>Chst2</t>
+  </si>
+  <si>
+    <t>Gm42535</t>
+  </si>
+  <si>
+    <t>Dbpht2</t>
+  </si>
+  <si>
+    <t>Ivns1abp</t>
+  </si>
+  <si>
+    <t>Gm43652</t>
+  </si>
+  <si>
+    <t>Gm23237</t>
+  </si>
+  <si>
+    <t>P2ry12</t>
+  </si>
+  <si>
+    <t>Strn</t>
+  </si>
+  <si>
+    <t>Gm42715</t>
+  </si>
+  <si>
+    <t>Wrb</t>
+  </si>
+  <si>
+    <t>Qk</t>
+  </si>
+  <si>
+    <t>P2ry13</t>
+  </si>
+  <si>
+    <t>Prr15</t>
+  </si>
+  <si>
+    <t>Tmem119</t>
+  </si>
+  <si>
+    <t>Znrf3</t>
+  </si>
+  <si>
+    <t>Marcks</t>
+  </si>
+  <si>
+    <t>Cox7a2</t>
+  </si>
+  <si>
+    <t>Gpr34</t>
+  </si>
+  <si>
+    <t>Gm37254</t>
+  </si>
+  <si>
+    <t>1700017B05Rik</t>
+  </si>
+  <si>
+    <t>Gm10461</t>
+  </si>
+  <si>
+    <t>BC106179</t>
+  </si>
+  <si>
+    <t>Fgd2</t>
+  </si>
+  <si>
+    <t>Gm14667</t>
+  </si>
+  <si>
+    <t>Ddx5</t>
+  </si>
+  <si>
+    <t>Cd33</t>
+  </si>
+  <si>
+    <t>Cd164</t>
+  </si>
+  <si>
+    <t>Serinc3</t>
+  </si>
+  <si>
+    <t>Chpt1</t>
+  </si>
+  <si>
+    <t>Cst7</t>
+  </si>
+  <si>
+    <t>Zfp691</t>
+  </si>
+  <si>
+    <t>Rsrp1</t>
+  </si>
+  <si>
+    <t>Ssh2</t>
+  </si>
+  <si>
+    <t>Zfhx3</t>
+  </si>
+  <si>
+    <t>Pag1</t>
+  </si>
+  <si>
+    <t>Enkd1</t>
+  </si>
+  <si>
+    <t>Rhob</t>
+  </si>
+  <si>
+    <t>Mef2a</t>
+  </si>
+  <si>
+    <t>Hnrnpk</t>
+  </si>
+  <si>
+    <t>Mertk</t>
+  </si>
+  <si>
+    <t>Klhl32</t>
+  </si>
+  <si>
+    <t>Zfp207</t>
+  </si>
+  <si>
+    <t>Dtna</t>
+  </si>
+  <si>
+    <t>Ecscr</t>
+  </si>
+  <si>
+    <t>AC153506.3</t>
+  </si>
+  <si>
+    <t>Sall1</t>
+  </si>
+  <si>
+    <t>Cx3cr1</t>
+  </si>
+  <si>
+    <t>Malat1</t>
+  </si>
+  <si>
+    <t>Cbx3</t>
+  </si>
+  <si>
+    <t>Hnrnpa2b1</t>
+  </si>
+  <si>
+    <t>Itgax</t>
+  </si>
+  <si>
+    <t>Csde1</t>
+  </si>
+  <si>
+    <t>Srgap2</t>
+  </si>
+  <si>
+    <t>Lzts3</t>
+  </si>
+  <si>
+    <t>Dock4</t>
+  </si>
+  <si>
+    <t>Pcgf5</t>
+  </si>
+  <si>
+    <t>Itgam</t>
+  </si>
+  <si>
+    <t>AC164629.2</t>
+  </si>
+  <si>
+    <t>Nckap1l</t>
+  </si>
+  <si>
+    <t>Pik3r1</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>term_size</t>
+  </si>
+  <si>
+    <t>query_size</t>
+  </si>
+  <si>
+    <t>intersection_size</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>term_id</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>term_name</t>
+  </si>
+  <si>
+    <t>effective_domain_size</t>
+  </si>
+  <si>
+    <t>source_order</t>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
+    <t>evidence_codes</t>
+  </si>
+  <si>
+    <t>intersection</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>no significant enrichment identified</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>query_1</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>MIRNA:mmu-miR-15a-5p</t>
+  </si>
+  <si>
+    <t>MIRNA:mmu-miR-758-3p</t>
+  </si>
+  <si>
+    <t>MIRNA</t>
+  </si>
+  <si>
+    <t>mmu-miR-15a-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-758-3p</t>
+  </si>
+  <si>
+    <t>MIRNA:000000</t>
+  </si>
+  <si>
+    <t>MIRNA,MIRNA,MIRNA,MIRNA,MIRNA,MIRNA,MIRNA,MIRNA,MIRNA,MIRNA</t>
+  </si>
+  <si>
+    <t>MIRNA,MIRNA,MIRNA,MIRNA,MIRNA,MIRNA</t>
+  </si>
+  <si>
+    <t>P2ry12,Strn,Qk,Znrf3,Ddx5,Serinc3,Klhl32,Hnrnpa2b1,Lzts3,Pik3r1</t>
+  </si>
+  <si>
+    <t>Qk,1700017B05Rik,Cd164,Zfhx3,Dtna,Lzts3</t>
   </si>
 </sst>
 </file>
@@ -218,22 +413,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-10.435504726356807</v>
+        <v>3.937587620970794</v>
       </c>
       <c r="C2" t="n">
-        <v>8.936278847934839</v>
+        <v>1.85091771684808</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.750794910709061</v>
+        <v>10.199278394125347</v>
       </c>
       <c r="E2" t="n">
-        <v>7.144606470833765E-14</v>
+        <v>1.5557215812599745E-18</v>
       </c>
       <c r="F2" t="n">
-        <v>8.304176101050084E-10</v>
+        <v>1.9810558615764514E-14</v>
       </c>
       <c r="G2" t="n">
-        <v>19.64872880507857</v>
+        <v>29.970970494037026</v>
       </c>
     </row>
     <row r="3">
@@ -241,22 +436,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>4.74782159240878</v>
+        <v>2.9652282700521093</v>
       </c>
       <c r="C3" t="n">
-        <v>1.8904150301026563</v>
+        <v>1.2532267088549267</v>
       </c>
       <c r="D3" t="n">
-        <v>8.071204790856203</v>
+        <v>7.859578719018596</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0054250433058234E-12</v>
+        <v>1.003547555916238E-12</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1654527639171792E-8</v>
+        <v>6.389587288518687E-9</v>
       </c>
       <c r="G3" t="n">
-        <v>16.75014831550915</v>
+        <v>17.87013275402093</v>
       </c>
     </row>
     <row r="4">
@@ -264,22 +459,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2.312576563351808</v>
+        <v>5.893692792669918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7419952870327355</v>
+        <v>3.2366102273057225</v>
       </c>
       <c r="D4" t="n">
-        <v>7.570611578109841</v>
+        <v>7.646684321882018</v>
       </c>
       <c r="E4" t="n">
-        <v>2.2742111119142463E-11</v>
+        <v>3.2224954798138417E-12</v>
       </c>
       <c r="F4" t="n">
-        <v>8.811051917926428E-8</v>
+        <v>1.3678419146649821E-8</v>
       </c>
       <c r="G4" t="n">
-        <v>14.627974273468878</v>
+        <v>16.809198673147872</v>
       </c>
     </row>
     <row r="5">
@@ -287,22 +482,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>5.878758301270105</v>
+        <v>2.4629957687273247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9896187333491764</v>
+        <v>0.9969678010626372</v>
       </c>
       <c r="D5" t="n">
-        <v>5.845234606290326</v>
+        <v>7.32813713206346</v>
       </c>
       <c r="E5" t="n">
-        <v>6.93834415671199E-8</v>
+        <v>1.8047199144628446E-11</v>
       </c>
       <c r="F5" t="n">
-        <v>1.6860689146967387E-4</v>
+        <v>5.745325847692466E-8</v>
       </c>
       <c r="G5" t="n">
-        <v>7.56862287991914</v>
+        <v>15.241497552141777</v>
       </c>
     </row>
     <row r="6">
@@ -310,22 +505,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>2.8167318388059543</v>
+        <v>2.85475498068362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18547694763548564</v>
+        <v>1.1153080353893343</v>
       </c>
       <c r="D6" t="n">
-        <v>5.835211407311029</v>
+        <v>7.205321318813464</v>
       </c>
       <c r="E6" t="n">
-        <v>7.253157165519826E-8</v>
+        <v>3.479176252153541E-11</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6860689146967387E-4</v>
+        <v>8.86076607898464E-8</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5294668168820404</v>
+        <v>14.643986042621549</v>
       </c>
     </row>
     <row r="7">
@@ -333,22 +528,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>3.785585407575947</v>
+        <v>4.453299134769969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3858669352111885</v>
+        <v>2.4260749374720514</v>
       </c>
       <c r="D7" t="n">
-        <v>5.691128364834456</v>
+        <v>7.130315920649319</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3676275642123023E-7</v>
+        <v>5.183022785301332E-11</v>
       </c>
       <c r="F7" t="n">
-        <v>2.4230684976482626E-4</v>
+        <v>1.1000102024671194E-7</v>
       </c>
       <c r="G7" t="n">
-        <v>6.96980434941751</v>
+        <v>14.281101735818961</v>
       </c>
     </row>
     <row r="8">
@@ -356,22 +551,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>2.850811964035673</v>
+        <v>4.086999445567183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.830685850283641</v>
+        <v>2.5156047723127486</v>
       </c>
       <c r="D8" t="n">
-        <v>5.676298942199763</v>
+        <v>6.707383761569793</v>
       </c>
       <c r="E8" t="n">
-        <v>1.4593030614761972E-7</v>
+        <v>4.739163550869986E-10</v>
       </c>
       <c r="F8" t="n">
-        <v>2.4230684976482626E-4</v>
+        <v>8.621215522396914E-7</v>
       </c>
       <c r="G8" t="n">
-        <v>6.912551049556958</v>
+        <v>12.265963965813562</v>
       </c>
     </row>
     <row r="9">
@@ -379,22 +574,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-8.707704149136239</v>
+        <v>2.52928824314695</v>
       </c>
       <c r="C9" t="n">
-        <v>5.39570783510801</v>
+        <v>1.1327498625381254</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.249089255050405</v>
+        <v>6.546130129737136</v>
       </c>
       <c r="E9" t="n">
-        <v>9.144553546245268E-7</v>
+        <v>1.083897676385521E-9</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0012847194232672974</v>
+        <v>1.7252941263866529E-6</v>
       </c>
       <c r="G9" t="n">
-        <v>5.2935749854727785</v>
+        <v>11.512660385035524</v>
       </c>
     </row>
     <row r="10">
@@ -402,22 +597,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>4.4242474277327695</v>
+        <v>3.4251083745498057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9085681725740155</v>
+        <v>1.7087058598400988</v>
       </c>
       <c r="D10" t="n">
-        <v>5.229093259282045</v>
+        <v>6.240498694286192</v>
       </c>
       <c r="E10" t="n">
-        <v>9.94792636101323E-7</v>
+        <v>5.0598166020258015E-9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0012847194232672974</v>
+        <v>7.1590782900218395E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>5.219329427552363</v>
+        <v>10.110009321667167</v>
       </c>
     </row>
     <row r="11">
@@ -425,22 +620,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>1.5562719427049303</v>
+        <v>1.8303119297937651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07859959306590565</v>
+        <v>0.7157286591862034</v>
       </c>
       <c r="D11" t="n">
-        <v>5.092262354079639</v>
+        <v>6.191873491637089</v>
       </c>
       <c r="E11" t="n">
-        <v>1.762376468956112E-6</v>
+        <v>6.443135148112391E-9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002048410169867689</v>
+        <v>8.204688297606319E-6</v>
       </c>
       <c r="G11" t="n">
-        <v>4.715238141992309</v>
+        <v>9.89005321752006</v>
       </c>
     </row>
     <row r="12">
@@ -448,22 +643,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1407949336878453</v>
+        <v>3.903020686047603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.19380538675887746</v>
+        <v>2.1441066319710003</v>
       </c>
       <c r="D12" t="n">
-        <v>5.0271967910482935</v>
+        <v>6.1581605107509745</v>
       </c>
       <c r="E12" t="n">
-        <v>2.306871307175193E-6</v>
+        <v>7.614131823433766E-9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002265758089389002</v>
+        <v>8.81439587632778E-6</v>
       </c>
       <c r="G12" t="n">
-        <v>4.478028885002809</v>
+        <v>9.738089425539105</v>
       </c>
     </row>
     <row r="13">
@@ -471,22 +666,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>1.2606691936004593</v>
+        <v>4.459460269624946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06367016129295251</v>
+        <v>3.1170189918498554</v>
       </c>
       <c r="D13" t="n">
-        <v>5.023816560988018</v>
+        <v>6.040953067306577</v>
       </c>
       <c r="E13" t="n">
-        <v>2.3392495115433214E-6</v>
+        <v>1.3556156574593646E-8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002265758089389002</v>
+        <v>1.3563274997286824E-5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.465750656558365</v>
+        <v>9.213258396028406</v>
       </c>
     </row>
     <row r="14">
@@ -494,22 +689,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>3.5586147683049423</v>
+        <v>3.727177960931148</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4292804908934432</v>
+        <v>1.9816956610568353</v>
       </c>
       <c r="D14" t="n">
-        <v>4.78839664013122</v>
+        <v>6.032713210560405</v>
       </c>
       <c r="E14" t="n">
-        <v>6.100241987301763E-6</v>
+        <v>1.4114070088584357E-8</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005454085586031414</v>
+        <v>1.3563274997286824E-5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.6219747077114626</v>
+        <v>9.176569191813222</v>
       </c>
     </row>
     <row r="15">
@@ -517,22 +712,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>2.935934942201301</v>
+        <v>3.1611254701079465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9313314638172071</v>
+        <v>2.5631853115111567</v>
       </c>
       <c r="D15" t="n">
-        <v>4.694579497809867</v>
+        <v>6.021471856998487</v>
       </c>
       <c r="E15" t="n">
-        <v>8.876058217050556E-6</v>
+        <v>1.491172058756208E-8</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0073690303326270435</v>
+        <v>1.3563274997286824E-5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2922064189466127</v>
+        <v>9.12655985773257</v>
       </c>
     </row>
     <row r="16">
@@ -540,22 +735,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>2.4133799878241717</v>
+        <v>2.7575849504417174</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20335125336185714</v>
+        <v>1.2622273457409823</v>
       </c>
       <c r="D16" t="n">
-        <v>4.641552240713707</v>
+        <v>5.41619138412278</v>
       </c>
       <c r="E16" t="n">
-        <v>1.095193449935154E-5</v>
+        <v>2.643279143416162E-7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008486288979064198</v>
+        <v>2.2439677741507605E-4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.107521540579084</v>
+        <v>6.514319431822145</v>
       </c>
     </row>
     <row r="17">
@@ -563,22 +758,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>6.186746243125911</v>
+        <v>5.4743583304841685</v>
       </c>
       <c r="C17" t="n">
-        <v>2.268060939722845</v>
+        <v>3.081662841329238</v>
       </c>
       <c r="D17" t="n">
-        <v>4.613049329630236</v>
+        <v>5.358897045319302</v>
       </c>
       <c r="E17" t="n">
-        <v>1.2254934734828261E-5</v>
+        <v>3.438492520656395E-7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008902444151431805</v>
+        <v>2.598993900324293E-4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.0087699472696823</v>
+        <v>6.2757537355139235</v>
       </c>
     </row>
     <row r="18">
@@ -586,22 +781,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>3.418951432607515</v>
+        <v>2.456031464401042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5607555856199296</v>
+        <v>1.5102452579295507</v>
       </c>
       <c r="D18" t="n">
-        <v>4.589388479492225</v>
+        <v>5.356923731134505</v>
       </c>
       <c r="E18" t="n">
-        <v>1.3449600044634526E-5</v>
+        <v>3.4696793077990405E-7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009195570665811005</v>
+        <v>2.598993900324293E-4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9270731336864486</v>
+        <v>6.267565523415088</v>
       </c>
     </row>
     <row r="19">
@@ -609,22 +804,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>2.3068578610192167</v>
+        <v>2.233590404457465</v>
       </c>
       <c r="C19" t="n">
-        <v>1.1367976219914286</v>
+        <v>1.4345717657962473</v>
       </c>
       <c r="D19" t="n">
-        <v>4.4288938542187815</v>
+        <v>5.137746589831707</v>
       </c>
       <c r="E19" t="n">
-        <v>2.509606128134366E-5</v>
+        <v>9.340882909066801E-7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.015405907093553432</v>
+        <v>6.608155720225369E-4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.379745507948936</v>
+        <v>5.370142026099231</v>
       </c>
     </row>
     <row r="20">
@@ -632,22 +827,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>2.455506187919224</v>
+        <v>5.638150069962281</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2213105127694468</v>
+        <v>4.083347941825919</v>
       </c>
       <c r="D20" t="n">
-        <v>4.427985699601665</v>
+        <v>5.101219884032857</v>
       </c>
       <c r="E20" t="n">
-        <v>2.5183879788136904E-5</v>
+        <v>1.0990010779772704E-6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.015405907093553432</v>
+        <v>7.365620908927664E-4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3766830184675083</v>
+        <v>5.222953777491101</v>
       </c>
     </row>
     <row r="21">
@@ -655,22 +850,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.062886434274148</v>
+        <v>1.9342541735961334</v>
       </c>
       <c r="C21" t="n">
-        <v>3.9798619221241864</v>
+        <v>1.1491800803197676</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.408944021459021</v>
+        <v>5.0688742513589755</v>
       </c>
       <c r="E21" t="n">
-        <v>2.7095063550805654E-5</v>
+        <v>1.268428528082428E-6</v>
       </c>
       <c r="F21" t="n">
-        <v>0.015746296182550704</v>
+        <v>8.022089705064207E-4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.3125616749223887</v>
+        <v>5.093192334344719</v>
       </c>
     </row>
     <row r="22">
@@ -678,22 +873,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>1.486495049425784</v>
+        <v>2.4686669141787307</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11724576074494555</v>
+        <v>1.4587465095608203</v>
       </c>
       <c r="D22" t="n">
-        <v>4.305479686248821</v>
+        <v>5.059356359039323</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0188283946699624E-5</v>
+        <v>1.3229455301268128E-6</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02224325830059475</v>
+        <v>8.022089705064207E-4</v>
       </c>
       <c r="G22" t="n">
-        <v>1.9672359988931163</v>
+        <v>5.055113425989781</v>
       </c>
     </row>
     <row r="23">
@@ -701,22 +896,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>1.7854804564536144</v>
+        <v>2.1842433983577</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2672762990727348</v>
+        <v>0.8576854981568064</v>
       </c>
       <c r="D23" t="n">
-        <v>4.264565287322058</v>
+        <v>5.03389342186095</v>
       </c>
       <c r="E23" t="n">
-        <v>4.689652606386683E-5</v>
+        <v>1.4802332677256164E-6</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0247762873836511</v>
+        <v>8.567859286917274E-4</v>
       </c>
       <c r="G23" t="n">
-        <v>1.8321391746191482</v>
+        <v>4.953476123719563</v>
       </c>
     </row>
     <row r="24">
@@ -724,22 +919,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>3.8801785946310265</v>
+        <v>4.809457067278819</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7555786272825333</v>
+        <v>3.1239613217984177</v>
       </c>
       <c r="D24" t="n">
-        <v>4.2318809395763575</v>
+        <v>4.820274756271093</v>
       </c>
       <c r="E24" t="n">
-        <v>5.301789620227646E-5</v>
+        <v>3.745526799374531E-6</v>
       </c>
       <c r="F24" t="n">
-        <v>0.026792478589524313</v>
+        <v>0.0020705771207775625</v>
       </c>
       <c r="G24" t="n">
-        <v>1.7248226605214496</v>
+        <v>4.114485508184362</v>
       </c>
     </row>
     <row r="25">
@@ -747,22 +942,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>1.8380282646081072</v>
+        <v>4.7027651590361055</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1894812084547937</v>
+        <v>2.9606089754273532</v>
       </c>
       <c r="D25" t="n">
-        <v>4.167779299941831</v>
+        <v>4.810692481082216</v>
       </c>
       <c r="E25" t="n">
-        <v>6.732961988886346E-5</v>
+        <v>3.902454130568674E-6</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03158837300650732</v>
+        <v>0.0020705771207775625</v>
       </c>
       <c r="G25" t="n">
-        <v>1.515931898340538</v>
+        <v>4.07743509292516</v>
       </c>
     </row>
     <row r="26">
@@ -770,22 +965,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>2.038027424187611</v>
+        <v>2.4162864660741783</v>
       </c>
       <c r="C26" t="n">
-        <v>0.17515843085215593</v>
+        <v>1.0165382334373747</v>
       </c>
       <c r="D26" t="n">
-        <v>4.1562755032483665</v>
+        <v>4.772706298459806</v>
       </c>
       <c r="E26" t="n">
-        <v>7.026358806925983E-5</v>
+        <v>4.589606878536666E-6</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03158837300650732</v>
+        <v>0.0023377621596514363</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4786680907993812</v>
+        <v>3.931062627422641</v>
       </c>
     </row>
     <row r="27">
@@ -793,22 +988,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>1.670698277142853</v>
+        <v>4.748568753681822</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22220687142652676</v>
+        <v>3.021623267825205</v>
       </c>
       <c r="D27" t="n">
-        <v>4.15475130338763</v>
+        <v>4.756590738694358</v>
       </c>
       <c r="E27" t="n">
-        <v>7.066142116228084E-5</v>
+        <v>4.9152995393839044E-6</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03158837300650732</v>
+        <v>0.002407362474404409</v>
       </c>
       <c r="G27" t="n">
-        <v>1.4737359631828095</v>
+        <v>3.8692084042281376</v>
       </c>
     </row>
     <row r="28">
@@ -816,22 +1011,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>4.864425520645313</v>
+        <v>2.747477489581926</v>
       </c>
       <c r="C28" t="n">
-        <v>1.1835776882453248</v>
+        <v>2.529219144185821</v>
       </c>
       <c r="D28" t="n">
-        <v>4.132632219068278</v>
+        <v>4.69901431633169</v>
       </c>
       <c r="E28" t="n">
-        <v>7.66840344306677E-5</v>
+        <v>6.271826085842577E-6</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03301105674769076</v>
+        <v>0.002957979013967384</v>
       </c>
       <c r="G28" t="n">
-        <v>1.402297471315082</v>
+        <v>3.649417632043228</v>
       </c>
     </row>
     <row r="29">
@@ -839,22 +1034,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>2.8134321664553754</v>
+        <v>4.3716099834651745</v>
       </c>
       <c r="C29" t="n">
-        <v>0.44322895883522945</v>
+        <v>3.469167062458536</v>
       </c>
       <c r="D29" t="n">
-        <v>4.103153990330775</v>
+        <v>4.638875482952282</v>
       </c>
       <c r="E29" t="n">
-        <v>8.548049350724022E-5</v>
+        <v>8.07334119042716E-6</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03548356342980903</v>
+        <v>0.003534668843293076</v>
       </c>
       <c r="G29" t="n">
-        <v>1.3074891364616272</v>
+        <v>3.421862332475296</v>
       </c>
     </row>
     <row r="30">
@@ -862,22 +1057,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>3.3784927405696132</v>
+        <v>3.2653653030657463</v>
       </c>
       <c r="C30" t="n">
-        <v>1.4892984977457286</v>
+        <v>1.6079645517240537</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0288240011572185</v>
+        <v>4.632806035208567</v>
       </c>
       <c r="E30" t="n">
-        <v>1.121681455511833E-4</v>
+        <v>8.280743612790168E-6</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04495621916349667</v>
+        <v>0.003534668843293076</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0704717731984177</v>
+        <v>3.3990120889653017</v>
       </c>
     </row>
     <row r="31">
@@ -885,22 +1080,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>3.06583551489931</v>
+        <v>5.297319126325806</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4519713874613502</v>
+        <v>3.7278137576127253</v>
       </c>
       <c r="D31" t="n">
-        <v>4.007073067429025</v>
+        <v>4.6314632913447005</v>
       </c>
       <c r="E31" t="n">
-        <v>1.2138058106906361E-4</v>
+        <v>8.327317834049967E-6</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04522655648495274</v>
+        <v>0.003534668843293076</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0016742650795774</v>
+        <v>3.3939598051838438</v>
       </c>
     </row>
     <row r="32">
@@ -908,22 +1103,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>6.320340805024014</v>
+        <v>2.0637989840720397</v>
       </c>
       <c r="C32" t="n">
-        <v>4.05044523769029</v>
+        <v>0.8264349286724758</v>
       </c>
       <c r="D32" t="n">
-        <v>4.001683126459997</v>
+        <v>4.589975849003732</v>
       </c>
       <c r="E32" t="n">
-        <v>1.2377305188249424E-4</v>
+        <v>9.897767677470607E-6</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04522655648495274</v>
+        <v>0.004065747535642281</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9846656274094716</v>
+        <v>3.238371971243284</v>
       </c>
     </row>
     <row r="33">
@@ -931,22 +1126,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>2.9998644576465288</v>
+        <v>3.740843532332056</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4849016772412223</v>
+        <v>1.5284385757179775</v>
       </c>
       <c r="D33" t="n">
-        <v>4.000029576997175</v>
+        <v>4.500790789644266</v>
       </c>
       <c r="E33" t="n">
-        <v>1.2451602921091694E-4</v>
+        <v>1.4299620193727537E-5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04522655648495274</v>
+        <v>0.005690355110841452</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9794508027526572</v>
+        <v>2.907317191156203</v>
       </c>
     </row>
     <row r="34">
@@ -954,22 +1149,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>4.3761302602571766</v>
+        <v>1.7487282774582145</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9003363696261087</v>
+        <v>0.9442940829445362</v>
       </c>
       <c r="D34" t="n">
-        <v>3.987872039188488</v>
+        <v>4.489969888171974</v>
       </c>
       <c r="E34" t="n">
-        <v>1.3011127043184695E-4</v>
+        <v>1.49475615927066E-5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04582676655240476</v>
+        <v>0.005767946949137147</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9411550086916716</v>
+        <v>2.8674698806741556</v>
       </c>
     </row>
     <row r="35">
@@ -977,22 +1172,896 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>2.0653562287469245</v>
+        <v>1.9801656264163963</v>
       </c>
       <c r="C35" t="n">
-        <v>0.19545417816158758</v>
+        <v>1.1995382195702518</v>
       </c>
       <c r="D35" t="n">
-        <v>3.96875575878692</v>
+        <v>4.4709180201959</v>
       </c>
       <c r="E35" t="n">
-        <v>1.39398564066253E-4</v>
+        <v>1.6157747035616358E-5</v>
       </c>
       <c r="F35" t="n">
-        <v>0.047653809121825264</v>
+        <v>0.005922258206378814</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8811023581166264</v>
+        <v>2.7974821576097213</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.703927100195807</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.623100486278722</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.469106560861752</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.6277606189984175E-5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.005922258206378814</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.790838984814487</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.0988327902242654</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0954524472193856</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.396079021933709</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.1890935103132526E-5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0077433102112024884</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.5246677695022814</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5.003778200692108</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.3795182382249283</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.355855098085636</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.5735396190521945E-5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.008857149597029905</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.3794396332300067</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.6399381598496903</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.8871676255041</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.347939329231908</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.6564864546419394E-5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.008902025924581699</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.3509762267928807</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.713162121817508</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.4397395081452293</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.25778142322269</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.802094181908231E-5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.012414324951902414</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.0295140131645937</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.419656739806881</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.9483519762639436</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.245902385494221</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.984505972834701E-5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.012684674764519272</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.9875352082547186</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.4582058031480676</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.9739313195702661</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.193814828899606</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.888267270530446E-5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01459976945158018</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.8045106300708262</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-3.8957727630997234</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.1130118731916478</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-4.1937433814578045</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.889632370808499E-5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01459976945158018</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.8042607530366652</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.0466240915590634</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.4788392313949072</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.1916376057438836</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.930030520009013E-5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01459976945158018</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.7968975582869344</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.2403399943665985</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.0446595268347463</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.16908606848517</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.383211685749873E-5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.015579504001440656</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.7182184408185144</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.6903346696527275</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.6964851387100786</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.136572519526501</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.107388768367406E-5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01724876147418924</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.605352292464418</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.998007517431306</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.2802565920635955</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.131398667935331</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6.230901741893396E-5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01724876147418924</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.5874542154066278</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.702005884925041</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.3564922704411133</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.075861896394098</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7.716410735309788E-5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.020659435493769866</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.3964161256560859</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.5264959963520728</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8770099963109256</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.073470339883123</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7.787442309572432E-5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.020659435493769866</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.3882341735765245</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.436103931797464</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.2392289671032723</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.063631615928158</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.086290136971151E-5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.021014452776365437</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.3546130385589912</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.4733272381539924</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.3889865349191775</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.04685769658609</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8.62122121134315E-5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.021956526181048732</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.2974374943673208</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.595723480932433</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.9164412293551727</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.025489276312438</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.351747157954782E-5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.023350029080273765</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.224866158386381</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.045374822900516</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.70919560564871</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.017306077006811</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9.646860492121701E-5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.023623677212822644</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.1971532697449607</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.6364107030539257</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9234034124686967</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.99922825517203</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.0330631168499162E-4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.024820803264088365</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.136086921309948</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.244606868996441</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.3504587625413298</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.9839890711160093</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.094271971046884E-4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.025804554220946335</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0847758838653396</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.7878237771851577</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7119890258872555</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.9742611263491208</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.1351370734143736E-4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.026281519077924788</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0521012914813985</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.870897774537654</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.997351142448291</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.959138487882127</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.201566235046408E-4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.02729176640496745</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0014306470112437</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.8595953910058176</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.509548457979112</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.9547263019330456</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.221635530927552E-4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.02729176640496745</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9866754191790106</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.666771869663693</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.0663591316008154</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.935973401039123</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.310555009545565E-4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.028298281853308325</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9241057417994991</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.304103716482675</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.392249477139393</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.9307098071031015</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.3366006242299436E-4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.028298281853308325</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9065854901081618</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.285143694669749</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.329194979387688</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.9279499815505763</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.3504532280461968E-4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.028298281853308325</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.8974065640148643</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.6150283952649955</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.063344468246496</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.9269354753274963</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.3555797024122882E-4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.028298281853308325</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8940336816215506</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.7149995849195565</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.3292457161081814</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.883970632654352</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.5905233060604465E-4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.03266729641834472</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.7518199309120197</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-2.1837291548560915</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.3990142381594495</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-3.877188006929971</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.630982476848574E-4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.032723053590530016</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7294821715783346</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.5667277821015273</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.4472058182299539</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.8719664209400606</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.6627947605101097E-4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.032723053590530016</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.7123065224111889</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.99371079318559</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.7510757503767334</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.870743496102294</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.670330205265E-4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.032723053590530016</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.7082865329550101</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.6707832378855223</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.118781416827293</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-3.8332791226074505</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.917559102542152E-4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.036997269108745096</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.5856214915108167</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.221237544919862</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.785742190075462</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.820759875356581</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.00765583106193E-4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.03815744679513823</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.5448423823586257</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.6437450726913438</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7992452431226353</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.7791483487709745</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.3368832020352539E-4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0436244193112732</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.4100647201599026</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.2765311520989964</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.5152960179827284</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.7759949305267173</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.363817286381224E-4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0436244193112732</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.39989900293860625</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-2.479131118401761</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.241442768497665</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-3.746745149194109</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.6280736146853267E-4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.04780841344200421</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.3059300707955792</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.471322871555191</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.9421001198301628</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.742664257121871</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.667095449025194E-4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.04783492034913637</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2928662393939918</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.9508404010901703</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.3684870485206673</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.726705191283237</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.825032985342175E-4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.049963847271315635</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.24188763225056054</v>
       </c>
     </row>
   </sheetData>
@@ -1011,15 +2080,158 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.005759705213601251</v>
+      </c>
+      <c r="E2" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02557544757033248</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12120.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.045049374776678454</v>
+      </c>
+      <c r="E3" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.034482758620689655</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12120.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
